--- a/Code/Results/Cases/Case_3_82/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_82/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23.95043815335972</v>
+        <v>21.85292862532423</v>
       </c>
       <c r="C2">
-        <v>12.60091504060857</v>
+        <v>7.994163364222261</v>
       </c>
       <c r="D2">
-        <v>4.204425514803835</v>
+        <v>7.484255606184355</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>30.24529867187545</v>
+        <v>40.49427171907251</v>
       </c>
       <c r="G2">
-        <v>40.55290136334866</v>
+        <v>48.01132610198719</v>
       </c>
       <c r="H2">
-        <v>12.5295446720588</v>
+        <v>18.91783243392204</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.899036817758044</v>
+        <v>10.31135072363204</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.818709657931386</v>
+        <v>11.97902579733747</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.49210587704821</v>
+        <v>19.28708406754004</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.45048550569527</v>
+        <v>21.46850249411604</v>
       </c>
       <c r="C3">
-        <v>11.85883025832975</v>
+        <v>7.628238563502476</v>
       </c>
       <c r="D3">
-        <v>4.162502889057911</v>
+        <v>7.486012396679017</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>29.46013963840246</v>
+        <v>40.49690934936429</v>
       </c>
       <c r="G3">
-        <v>39.09041424675147</v>
+        <v>47.90370212990973</v>
       </c>
       <c r="H3">
-        <v>12.38416516401639</v>
+        <v>18.95464882032681</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.958844382646214</v>
+        <v>10.33535329139253</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.618677697633321</v>
+        <v>11.97215548735251</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.75055160939819</v>
+        <v>19.35930454826159</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.48893642609548</v>
+        <v>21.23393765387704</v>
       </c>
       <c r="C4">
-        <v>11.38074773778369</v>
+        <v>7.39284617914939</v>
       </c>
       <c r="D4">
-        <v>4.137432050583932</v>
+        <v>7.487535840291744</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>28.99899215050229</v>
+        <v>40.50916192268015</v>
       </c>
       <c r="G4">
-        <v>38.21388851121512</v>
+        <v>47.85305341749289</v>
       </c>
       <c r="H4">
-        <v>12.30542490297815</v>
+        <v>18.98122879686877</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.997004214806915</v>
+        <v>10.35092376328262</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.497059447786529</v>
+        <v>11.96969354966122</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.91185918859989</v>
+        <v>19.4056207432084</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.08709066226745</v>
+        <v>21.13885115210162</v>
       </c>
       <c r="C5">
-        <v>11.18031074628161</v>
+        <v>7.294298418682835</v>
       </c>
       <c r="D5">
-        <v>4.127384627157225</v>
+        <v>7.488268909409356</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>28.81640329346208</v>
+        <v>40.51682473634794</v>
       </c>
       <c r="G5">
-        <v>37.86242912762889</v>
+        <v>47.83630136146149</v>
       </c>
       <c r="H5">
-        <v>12.27590631409423</v>
+        <v>18.99305732058004</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.012918617651835</v>
+        <v>10.35747881540272</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.447853368501828</v>
+        <v>11.96913351139343</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.97829819959011</v>
+        <v>19.42499273515961</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.01976715890477</v>
+        <v>21.12309615178357</v>
       </c>
       <c r="C6">
-        <v>11.14669044215416</v>
+        <v>7.2777784790724</v>
       </c>
       <c r="D6">
-        <v>4.125726501661571</v>
+        <v>7.488397426790098</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>28.78640833483723</v>
+        <v>40.51825824035782</v>
       </c>
       <c r="G6">
-        <v>37.80442590962368</v>
+        <v>47.83375461501348</v>
       </c>
       <c r="H6">
-        <v>12.27115756803791</v>
+        <v>18.99508157616278</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.015583246441268</v>
+        <v>10.3585799738306</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.439705698955806</v>
+        <v>11.96906732840785</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.98937420548427</v>
+        <v>19.42823955518935</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.48355720226722</v>
+        <v>21.23265308524129</v>
       </c>
       <c r="C7">
-        <v>11.37806725594659</v>
+        <v>7.391527650115276</v>
       </c>
       <c r="D7">
-        <v>4.137295861522638</v>
+        <v>7.487545271653695</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>28.99650802273036</v>
+        <v>40.50925446279751</v>
       </c>
       <c r="G7">
-        <v>38.20912494060849</v>
+        <v>47.85281174664172</v>
       </c>
       <c r="H7">
-        <v>12.30501650990924</v>
+        <v>18.98138428726432</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.997217365082371</v>
+        <v>10.35101131617256</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.496394332335947</v>
+        <v>11.96968420030205</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.91275229579963</v>
+        <v>19.4058799829287</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.44177214949678</v>
+        <v>21.72015008911644</v>
       </c>
       <c r="C8">
-        <v>12.34971243335107</v>
+        <v>7.87025471558983</v>
       </c>
       <c r="D8">
-        <v>4.189831897039804</v>
+        <v>7.484769284742088</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>29.9702711903581</v>
+        <v>40.49297238122491</v>
       </c>
       <c r="G8">
-        <v>40.04438186420526</v>
+        <v>47.97101987654467</v>
       </c>
       <c r="H8">
-        <v>12.47718838182317</v>
+        <v>18.92970037475853</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.919361514910058</v>
+        <v>10.3194542897528</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.749519585220139</v>
+        <v>11.97629334030212</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.58070253150619</v>
+        <v>19.31157735455237</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>26.96820825706401</v>
+        <v>22.68219294923007</v>
       </c>
       <c r="C9">
-        <v>14.07679334913215</v>
+        <v>8.721494749432217</v>
       </c>
       <c r="D9">
-        <v>4.298163952719301</v>
+        <v>7.48283675129687</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>32.04293764252849</v>
+        <v>40.5455193431086</v>
       </c>
       <c r="G9">
-        <v>43.80004150848614</v>
+        <v>48.32475674044171</v>
       </c>
       <c r="H9">
-        <v>12.90158818698512</v>
+        <v>18.85998814422722</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.777985834944193</v>
+        <v>10.26415414474674</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.253308283721337</v>
+        <v>12.00311634249159</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.94811160092723</v>
+        <v>19.14221978286573</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.49092911936046</v>
+        <v>23.38532976529134</v>
       </c>
       <c r="C10">
-        <v>15.23784516331727</v>
+        <v>9.290800686893972</v>
       </c>
       <c r="D10">
-        <v>4.381037161373051</v>
+        <v>7.483533852108522</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>33.66157862702031</v>
+        <v>40.63566842351061</v>
       </c>
       <c r="G10">
-        <v>46.64016803350146</v>
+        <v>48.65797207564802</v>
       </c>
       <c r="H10">
-        <v>13.27058369760405</v>
+        <v>18.82818971667728</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.68085907391545</v>
+        <v>10.22750373340361</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.625421489150982</v>
+        <v>12.03116529058619</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.49126659952335</v>
+        <v>19.02716844041772</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.58655324655366</v>
+        <v>23.70291809708609</v>
       </c>
       <c r="C11">
-        <v>15.74310950765778</v>
+        <v>9.537193298968379</v>
       </c>
       <c r="D11">
-        <v>4.41947783277469</v>
+        <v>7.484305541907534</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>34.41829169901793</v>
+        <v>40.68784376071194</v>
       </c>
       <c r="G11">
-        <v>47.9478428231672</v>
+        <v>48.82516955991784</v>
       </c>
       <c r="H11">
-        <v>13.45175664685391</v>
+        <v>18.81796386605319</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.638108510854206</v>
+        <v>10.21168710210232</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.794704260560529</v>
+        <v>12.04570980474427</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.28432168070812</v>
+        <v>18.97683960725836</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.99411974920535</v>
+        <v>23.82273615772866</v>
       </c>
       <c r="C12">
-        <v>15.93120278855875</v>
+        <v>9.628659023089829</v>
       </c>
       <c r="D12">
-        <v>4.434144407374689</v>
+        <v>7.484662673358895</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>34.70776203655382</v>
+        <v>40.70920127853398</v>
       </c>
       <c r="G12">
-        <v>48.44521188809608</v>
+        <v>48.89069491694321</v>
       </c>
       <c r="H12">
-        <v>13.52234993202923</v>
+        <v>18.81470269488785</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.622124031988359</v>
+        <v>10.20582027269386</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.85878028709155</v>
+        <v>12.05147144639918</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.20600656918956</v>
+        <v>18.95806836605235</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.90666605971319</v>
+        <v>23.79695285421898</v>
       </c>
       <c r="C13">
-        <v>15.89083660627466</v>
+        <v>9.609042365092154</v>
       </c>
       <c r="D13">
-        <v>4.430980741146548</v>
+        <v>7.484582879235933</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>34.64528940335171</v>
+        <v>40.70453051376972</v>
       </c>
       <c r="G13">
-        <v>48.33799788605278</v>
+        <v>48.87648510285773</v>
       </c>
       <c r="H13">
-        <v>13.50705684676081</v>
+        <v>18.81537784467818</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.625557518841896</v>
+        <v>10.2070783549485</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.844981980589836</v>
+        <v>12.05021932463633</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.22287216894857</v>
+        <v>18.96209834157882</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.62022980509939</v>
+        <v>23.71278519617141</v>
       </c>
       <c r="C14">
-        <v>15.75864862048359</v>
+        <v>9.544755211482265</v>
       </c>
       <c r="D14">
-        <v>4.420682233579612</v>
+        <v>7.484333625100153</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>34.44204803541658</v>
+        <v>40.68956883318567</v>
       </c>
       <c r="G14">
-        <v>47.98871810556412</v>
+        <v>48.83051626459864</v>
       </c>
       <c r="H14">
-        <v>13.45752415098622</v>
+        <v>18.81768331172225</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.636789374680101</v>
+        <v>10.21120198045292</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.799976527744642</v>
+        <v>12.04617874519648</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.27787809761113</v>
+        <v>18.97528953947013</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.44383054598049</v>
+        <v>23.66116858944988</v>
       </c>
       <c r="C15">
-        <v>15.67725962975051</v>
+        <v>9.505137404974279</v>
       </c>
       <c r="D15">
-        <v>4.414388538345919</v>
+        <v>7.48418938912003</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>34.31793725014535</v>
+        <v>40.68061251476757</v>
       </c>
       <c r="G15">
-        <v>47.77505734124503</v>
+        <v>48.80264590826841</v>
       </c>
       <c r="H15">
-        <v>13.42744491019898</v>
+        <v>18.81917510529473</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.643695757492618</v>
+        <v>10.21374377022735</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.772405052364135</v>
+        <v>12.04373676140124</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.31157501796478</v>
+        <v>18.98340688195433</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.4182941234353</v>
+        <v>23.36451859885146</v>
       </c>
       <c r="C16">
-        <v>15.20436840414363</v>
+        <v>9.274442560728549</v>
       </c>
       <c r="D16">
-        <v>4.378540143617614</v>
+        <v>7.48349252860326</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>33.61253410501686</v>
+        <v>40.63248287806812</v>
       </c>
       <c r="G16">
-        <v>46.55501586866714</v>
+        <v>48.64735673310399</v>
       </c>
       <c r="H16">
-        <v>13.25901767551495</v>
+        <v>18.82894344332652</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.683681597112162</v>
+        <v>10.22855456759479</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.614355989505585</v>
+        <v>12.03025046142129</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.50480227333495</v>
+        <v>19.03049782588295</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.77595018402524</v>
+        <v>23.18186506135493</v>
       </c>
       <c r="C17">
-        <v>14.90843319720126</v>
+        <v>9.129673276727152</v>
       </c>
       <c r="D17">
-        <v>4.356740125382644</v>
+        <v>7.483181131436377</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>33.18499491868641</v>
+        <v>40.60581326156039</v>
       </c>
       <c r="G17">
-        <v>45.81049966793682</v>
+        <v>48.55606853141916</v>
       </c>
       <c r="H17">
-        <v>13.15915403837105</v>
+        <v>18.83602297814923</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.708577254810354</v>
+        <v>10.23785936527525</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.517377160929703</v>
+        <v>12.02243233923945</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.62351383179996</v>
+        <v>19.05989987607732</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.4015885883605</v>
+        <v>23.0766004968002</v>
       </c>
       <c r="C18">
-        <v>14.73605921116351</v>
+        <v>9.045222296739265</v>
       </c>
       <c r="D18">
-        <v>4.344270826365476</v>
+        <v>7.48304483868966</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>32.94100340234551</v>
+        <v>40.59152507494503</v>
       </c>
       <c r="G18">
-        <v>45.38374993946364</v>
+        <v>48.50503417680225</v>
       </c>
       <c r="H18">
-        <v>13.10296398359687</v>
+        <v>18.84049389901901</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.723031545981801</v>
+        <v>10.24329182148533</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.461599425915512</v>
+        <v>12.01810374117927</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.69188098082695</v>
+        <v>19.07700031396131</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.27398991913917</v>
+        <v>23.04092787469073</v>
       </c>
       <c r="C19">
-        <v>14.67732393773343</v>
+        <v>9.016426311613499</v>
       </c>
       <c r="D19">
-        <v>4.340060791491715</v>
+        <v>7.483006059596701</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>32.85872231498737</v>
+        <v>40.58686807797596</v>
       </c>
       <c r="G19">
-        <v>45.23951693914807</v>
+        <v>48.48800864622441</v>
       </c>
       <c r="H19">
-        <v>13.08415132707362</v>
+        <v>18.84207614723022</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.727948760076964</v>
+        <v>10.24514501270711</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.442715358178461</v>
+        <v>12.0166671167511</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.71504611936273</v>
+        <v>19.08282276623574</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.84483513549939</v>
+        <v>23.20133115426925</v>
       </c>
       <c r="C20">
-        <v>14.94015919281946</v>
+        <v>9.145206921731431</v>
       </c>
       <c r="D20">
-        <v>4.359053562153877</v>
+        <v>7.483209852320638</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>33.23030890744399</v>
+        <v>40.60854350090204</v>
       </c>
       <c r="G20">
-        <v>45.88960269232276</v>
+        <v>48.56563418354919</v>
       </c>
       <c r="H20">
-        <v>13.16965492453691</v>
+        <v>18.83522804710259</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.705913114768626</v>
+        <v>10.2368605171952</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.527700753289848</v>
+        <v>12.02324720488529</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.61086826241553</v>
+        <v>19.05675041266957</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.7045605032727</v>
+        <v>23.73752029560973</v>
       </c>
       <c r="C21">
-        <v>15.79756285572526</v>
+        <v>9.563687979049027</v>
       </c>
       <c r="D21">
-        <v>4.423704138078707</v>
+        <v>7.484405079153234</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>34.50166564562049</v>
+        <v>40.69392007765246</v>
       </c>
       <c r="G21">
-        <v>48.09125104671561</v>
+        <v>48.84395870747048</v>
       </c>
       <c r="H21">
-        <v>13.47201858580724</v>
+        <v>18.81698954333692</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.633484776963902</v>
+        <v>10.20998744855101</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.813196664969633</v>
+        <v>12.04735869182134</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.26172079300172</v>
+        <v>18.97140718348935</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.87740167999604</v>
+        <v>24.08530159289798</v>
       </c>
       <c r="C22">
-        <v>16.33907855143536</v>
+        <v>9.826468126993921</v>
       </c>
       <c r="D22">
-        <v>4.466600349191324</v>
+        <v>7.485564351788416</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>35.34960772506508</v>
+        <v>40.75903973375319</v>
       </c>
       <c r="G22">
-        <v>49.54289239516679</v>
+        <v>49.03873008812476</v>
       </c>
       <c r="H22">
-        <v>13.68124880424165</v>
+        <v>18.80863231265453</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.587338411502217</v>
+        <v>10.1931386482191</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>8.999615195161699</v>
+        <v>12.06459575898214</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.03378617132513</v>
+        <v>18.91730369244559</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.25527662417435</v>
+        <v>23.89996442425177</v>
       </c>
       <c r="C23">
-        <v>16.05176469675801</v>
+        <v>9.687206242254289</v>
       </c>
       <c r="D23">
-        <v>4.443645496412793</v>
+        <v>7.484911181265158</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>34.89548110590255</v>
+        <v>40.72343367081949</v>
       </c>
       <c r="G23">
-        <v>48.76696203644839</v>
+        <v>48.93361175044098</v>
       </c>
       <c r="H23">
-        <v>13.56849084895952</v>
+        <v>18.81276630644343</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.611859275039681</v>
+        <v>10.20206596868241</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.900143245162319</v>
+        <v>12.05526164791702</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.15544291793541</v>
+        <v>18.94602718083191</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.8137080505216</v>
+        <v>23.19253131759076</v>
       </c>
       <c r="C24">
-        <v>14.9258228415661</v>
+        <v>9.138187962455808</v>
       </c>
       <c r="D24">
-        <v>4.358007458830732</v>
+        <v>7.483196734475957</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>33.20981682503645</v>
+        <v>40.60730590566096</v>
       </c>
       <c r="G24">
-        <v>45.85383621338719</v>
+        <v>48.56130503791289</v>
       </c>
       <c r="H24">
-        <v>13.16490367032458</v>
+        <v>18.83558618706978</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.707117131768951</v>
+        <v>10.23731183782819</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.523033527541086</v>
+        <v>12.02287828641187</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.61658495026114</v>
+        <v>19.05817367189938</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.03980063567201</v>
+        <v>22.4220600708292</v>
       </c>
       <c r="C25">
-        <v>13.62862833318822</v>
+        <v>8.500898445135181</v>
       </c>
       <c r="D25">
-        <v>4.268286737622917</v>
+        <v>7.482986062346845</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>31.4651671211967</v>
+        <v>40.52224853926894</v>
       </c>
       <c r="G25">
-        <v>42.7689642322782</v>
+        <v>48.2160932555059</v>
       </c>
       <c r="H25">
-        <v>12.77703484136154</v>
+        <v>18.87544548641587</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.815037541965035</v>
+        <v>10.27841313380445</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.116506533035107</v>
+        <v>11.99438638876183</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.11759081464202</v>
+        <v>19.18638068807378</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_82/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_82/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.85292862532423</v>
+        <v>23.9504381533597</v>
       </c>
       <c r="C2">
-        <v>7.994163364222261</v>
+        <v>12.60091504060869</v>
       </c>
       <c r="D2">
-        <v>7.484255606184355</v>
+        <v>4.204425514803773</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>40.49427171907251</v>
+        <v>30.24529867187545</v>
       </c>
       <c r="G2">
-        <v>48.01132610198719</v>
+        <v>40.55290136334862</v>
       </c>
       <c r="H2">
-        <v>18.91783243392204</v>
+        <v>12.52954467205882</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.31135072363204</v>
+        <v>5.899036817758171</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>11.97902579733747</v>
+        <v>7.818709657931371</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>19.28708406754004</v>
+        <v>12.49210587704827</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.46850249411604</v>
+        <v>22.45048550569527</v>
       </c>
       <c r="C3">
-        <v>7.628238563502476</v>
+        <v>11.85883025832968</v>
       </c>
       <c r="D3">
-        <v>7.486012396679017</v>
+        <v>4.162502889057975</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>40.49690934936429</v>
+        <v>29.46013963840238</v>
       </c>
       <c r="G3">
-        <v>47.90370212990973</v>
+        <v>39.09041424675125</v>
       </c>
       <c r="H3">
-        <v>18.95464882032681</v>
+        <v>12.38416516401639</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.33535329139253</v>
+        <v>5.958844382646182</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>11.97215548735251</v>
+        <v>7.618677697633344</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>19.35930454826159</v>
+        <v>12.75055160939816</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.23393765387704</v>
+        <v>21.48893642609552</v>
       </c>
       <c r="C4">
-        <v>7.39284617914939</v>
+        <v>11.38074773778368</v>
       </c>
       <c r="D4">
-        <v>7.487535840291744</v>
+        <v>4.137432050583693</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>40.50916192268015</v>
+        <v>28.99899215050239</v>
       </c>
       <c r="G4">
-        <v>47.85305341749289</v>
+        <v>38.21388851121544</v>
       </c>
       <c r="H4">
-        <v>18.98122879686877</v>
+        <v>12.30542490297819</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.35092376328262</v>
+        <v>5.99700421480701</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>11.96969354966122</v>
+        <v>7.497059447786534</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>19.4056207432084</v>
+        <v>12.91185918859995</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.13885115210162</v>
+        <v>21.08709066226739</v>
       </c>
       <c r="C5">
-        <v>7.294298418682835</v>
+        <v>11.18031074628164</v>
       </c>
       <c r="D5">
-        <v>7.488268909409356</v>
+        <v>4.127384627157247</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>40.51682473634794</v>
+        <v>28.81640329346183</v>
       </c>
       <c r="G5">
-        <v>47.83630136146149</v>
+        <v>37.86242912762868</v>
       </c>
       <c r="H5">
-        <v>18.99305732058004</v>
+        <v>12.27590631409416</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.35747881540272</v>
+        <v>6.012918617651766</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>11.96913351139343</v>
+        <v>7.447853368501731</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>19.42499273515961</v>
+        <v>12.97829819959001</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.12309615178357</v>
+        <v>21.01976715890481</v>
       </c>
       <c r="C6">
-        <v>7.2777784790724</v>
+        <v>11.14669044215431</v>
       </c>
       <c r="D6">
-        <v>7.488397426790098</v>
+        <v>4.125726501661693</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>40.51825824035782</v>
+        <v>28.78640833483727</v>
       </c>
       <c r="G6">
-        <v>47.83375461501348</v>
+        <v>37.80442590962368</v>
       </c>
       <c r="H6">
-        <v>18.99508157616278</v>
+        <v>12.27115756803792</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.3585799738306</v>
+        <v>6.015583246441363</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>11.96906732840785</v>
+        <v>7.439705698955866</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>19.42823955518935</v>
+        <v>12.98937420548427</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.23265308524129</v>
+        <v>21.48355720226727</v>
       </c>
       <c r="C7">
-        <v>7.391527650115276</v>
+        <v>11.3780672559466</v>
       </c>
       <c r="D7">
-        <v>7.487545271653695</v>
+        <v>4.13729586152246</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>40.50925446279751</v>
+        <v>28.99650802273043</v>
       </c>
       <c r="G7">
-        <v>47.85281174664172</v>
+        <v>38.20912494060869</v>
       </c>
       <c r="H7">
-        <v>18.98138428726432</v>
+        <v>12.30501650990924</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.35101131617256</v>
+        <v>5.997217365082371</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>11.96968420030205</v>
+        <v>7.496394332335968</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>19.4058799829287</v>
+        <v>12.91275229579966</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.72015008911644</v>
+        <v>23.44177214949677</v>
       </c>
       <c r="C8">
-        <v>7.87025471558983</v>
+        <v>12.34971243335101</v>
       </c>
       <c r="D8">
-        <v>7.484769284742088</v>
+        <v>4.189831897039809</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>40.49297238122491</v>
+        <v>29.97027119035818</v>
       </c>
       <c r="G8">
-        <v>47.97101987654467</v>
+        <v>40.04438186420525</v>
       </c>
       <c r="H8">
-        <v>18.92970037475853</v>
+        <v>12.47718838182315</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.3194542897528</v>
+        <v>5.919361514910054</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>11.97629334030212</v>
+        <v>7.749519585220177</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>19.31157735455237</v>
+        <v>12.58070253150623</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.68219294923007</v>
+        <v>26.968208257064</v>
       </c>
       <c r="C9">
-        <v>8.721494749432217</v>
+        <v>14.07679334913229</v>
       </c>
       <c r="D9">
-        <v>7.48283675129687</v>
+        <v>4.298163952719402</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>40.5455193431086</v>
+        <v>32.04293764252836</v>
       </c>
       <c r="G9">
-        <v>48.32475674044171</v>
+        <v>43.80004150848598</v>
       </c>
       <c r="H9">
-        <v>18.85998814422722</v>
+        <v>12.90158818698507</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.26415414474674</v>
+        <v>5.777985834944196</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>12.00311634249159</v>
+        <v>8.253308283721363</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>19.14221978286573</v>
+        <v>11.94811160092716</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.38532976529134</v>
+        <v>29.49092911936051</v>
       </c>
       <c r="C10">
-        <v>9.290800686893972</v>
+        <v>15.23784516331703</v>
       </c>
       <c r="D10">
-        <v>7.483533852108522</v>
+        <v>4.381037161372953</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>40.63566842351061</v>
+        <v>33.66157862702026</v>
       </c>
       <c r="G10">
-        <v>48.65797207564802</v>
+        <v>46.64016803350139</v>
       </c>
       <c r="H10">
-        <v>18.82818971667728</v>
+        <v>13.27058369760398</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.22750373340361</v>
+        <v>5.680859073915488</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>12.03116529058619</v>
+        <v>8.625421489151016</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>19.02716844041772</v>
+        <v>11.49126659952332</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.70291809708609</v>
+        <v>30.58655324655368</v>
       </c>
       <c r="C11">
-        <v>9.537193298968379</v>
+        <v>15.74310950765773</v>
       </c>
       <c r="D11">
-        <v>7.484305541907534</v>
+        <v>4.419477832774658</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>40.68784376071194</v>
+        <v>34.4182916990179</v>
       </c>
       <c r="G11">
-        <v>48.82516955991784</v>
+        <v>47.9478428231672</v>
       </c>
       <c r="H11">
-        <v>18.81796386605319</v>
+        <v>13.4517566468539</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.21168710210232</v>
+        <v>5.638108510854237</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>12.04570980474427</v>
+        <v>8.794704260560543</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>18.97683960725836</v>
+        <v>11.28432168070802</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.82273615772866</v>
+        <v>30.99411974920529</v>
       </c>
       <c r="C12">
-        <v>9.628659023089829</v>
+        <v>15.93120278855883</v>
       </c>
       <c r="D12">
-        <v>7.484662673358895</v>
+        <v>4.43414440737481</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>40.70920127853398</v>
+        <v>34.70776203655392</v>
       </c>
       <c r="G12">
-        <v>48.89069491694321</v>
+        <v>48.44521188809611</v>
       </c>
       <c r="H12">
-        <v>18.81470269488785</v>
+        <v>13.52234993202931</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.20582027269386</v>
+        <v>5.622124031988447</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>12.05147144639918</v>
+        <v>8.858780287091598</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>18.95806836605235</v>
+        <v>11.20600656918966</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.79695285421898</v>
+        <v>30.90666605971318</v>
       </c>
       <c r="C13">
-        <v>9.609042365092154</v>
+        <v>15.89083660627464</v>
       </c>
       <c r="D13">
-        <v>7.484582879235933</v>
+        <v>4.430980741146613</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>40.70453051376972</v>
+        <v>34.64528940335174</v>
       </c>
       <c r="G13">
-        <v>48.87648510285773</v>
+        <v>48.33799788605283</v>
       </c>
       <c r="H13">
-        <v>18.81537784467818</v>
+        <v>13.50705684676081</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.2070783549485</v>
+        <v>5.625557518841986</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>12.05021932463633</v>
+        <v>8.8449819805899</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>18.96209834157882</v>
+        <v>11.22287216894856</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.71278519617141</v>
+        <v>30.62022980509943</v>
       </c>
       <c r="C14">
-        <v>9.544755211482265</v>
+        <v>15.75864862048365</v>
       </c>
       <c r="D14">
-        <v>7.484333625100153</v>
+        <v>4.420682233579443</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>40.68956883318567</v>
+        <v>34.44204803541651</v>
       </c>
       <c r="G14">
-        <v>48.83051626459864</v>
+        <v>47.98871810556412</v>
       </c>
       <c r="H14">
-        <v>18.81768331172225</v>
+        <v>13.45752415098619</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.21120198045292</v>
+        <v>5.636789374680231</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>12.04617874519648</v>
+        <v>8.79997652774462</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>18.97528953947013</v>
+        <v>11.27787809761113</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.66116858944988</v>
+        <v>30.44383054598051</v>
       </c>
       <c r="C15">
-        <v>9.505137404974279</v>
+        <v>15.67725962975053</v>
       </c>
       <c r="D15">
-        <v>7.48418938912003</v>
+        <v>4.414388538346024</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>40.68061251476757</v>
+        <v>34.31793725014528</v>
       </c>
       <c r="G15">
-        <v>48.80264590826841</v>
+        <v>47.77505734124501</v>
       </c>
       <c r="H15">
-        <v>18.81917510529473</v>
+        <v>13.4274449101989</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.21374377022735</v>
+        <v>5.64369575749256</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>12.04373676140124</v>
+        <v>8.772405052364135</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>18.98340688195433</v>
+        <v>11.31157501796468</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.36451859885146</v>
+        <v>29.41829412343531</v>
       </c>
       <c r="C16">
-        <v>9.274442560728549</v>
+        <v>15.20436840414349</v>
       </c>
       <c r="D16">
-        <v>7.48349252860326</v>
+        <v>4.378540143617517</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>40.63248287806812</v>
+        <v>33.61253410501687</v>
       </c>
       <c r="G16">
-        <v>48.64735673310399</v>
+        <v>46.55501586866723</v>
       </c>
       <c r="H16">
-        <v>18.82894344332652</v>
+        <v>13.25901767551498</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.22855456759479</v>
+        <v>5.683681597112197</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>12.03025046142129</v>
+        <v>8.61435598950559</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>19.03049782588295</v>
+        <v>11.50480227333491</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.18186506135493</v>
+        <v>28.77595018402521</v>
       </c>
       <c r="C17">
-        <v>9.129673276727152</v>
+        <v>14.90843319720133</v>
       </c>
       <c r="D17">
-        <v>7.483181131436377</v>
+        <v>4.356740125382373</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>40.60581326156039</v>
+        <v>33.18499491868634</v>
       </c>
       <c r="G17">
-        <v>48.55606853141916</v>
+        <v>45.81049966793677</v>
       </c>
       <c r="H17">
-        <v>18.83602297814923</v>
+        <v>13.15915403837104</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.23785936527525</v>
+        <v>5.708577254810324</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>12.02243233923945</v>
+        <v>8.517377160929655</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>19.05989987607732</v>
+        <v>11.62351383179996</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.0766004968002</v>
+        <v>28.40158858836043</v>
       </c>
       <c r="C18">
-        <v>9.045222296739265</v>
+        <v>14.73605921116336</v>
       </c>
       <c r="D18">
-        <v>7.48304483868966</v>
+        <v>4.344270826365538</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>40.59152507494503</v>
+        <v>32.94100340234554</v>
       </c>
       <c r="G18">
-        <v>48.50503417680225</v>
+        <v>45.38374993946363</v>
       </c>
       <c r="H18">
-        <v>18.84049389901901</v>
+        <v>13.10296398359692</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.24329182148533</v>
+        <v>5.723031545981861</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>12.01810374117927</v>
+        <v>8.461599425915548</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>19.07700031396131</v>
+        <v>11.69188098082702</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.04092787469073</v>
+        <v>28.27398991913921</v>
       </c>
       <c r="C19">
-        <v>9.016426311613499</v>
+        <v>14.67732393773349</v>
       </c>
       <c r="D19">
-        <v>7.483006059596701</v>
+        <v>4.340060791491616</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>40.58686807797596</v>
+        <v>32.8587223149873</v>
       </c>
       <c r="G19">
-        <v>48.48800864622441</v>
+        <v>45.23951693914807</v>
       </c>
       <c r="H19">
-        <v>18.84207614723022</v>
+        <v>13.08415132707357</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.24514501270711</v>
+        <v>5.727948760076869</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>12.0166671167511</v>
+        <v>8.442715358178418</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>19.08282276623574</v>
+        <v>11.71504611936266</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.20133115426925</v>
+        <v>28.84483513549933</v>
       </c>
       <c r="C20">
-        <v>9.145206921731431</v>
+        <v>14.94015919281936</v>
       </c>
       <c r="D20">
-        <v>7.483209852320638</v>
+        <v>4.359053562153601</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>40.60854350090204</v>
+        <v>33.23030890744402</v>
       </c>
       <c r="G20">
-        <v>48.56563418354919</v>
+        <v>45.88960269232278</v>
       </c>
       <c r="H20">
-        <v>18.83522804710259</v>
+        <v>13.16965492453698</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.2368605171952</v>
+        <v>5.70591311476869</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>12.02324720488529</v>
+        <v>8.52770075328983</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>19.05675041266957</v>
+        <v>11.6108682624156</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.73752029560973</v>
+        <v>30.70456050327272</v>
       </c>
       <c r="C21">
-        <v>9.563687979049027</v>
+        <v>15.79756285572532</v>
       </c>
       <c r="D21">
-        <v>7.484405079153234</v>
+        <v>4.423704138078858</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>40.69392007765246</v>
+        <v>34.50166564562053</v>
       </c>
       <c r="G21">
-        <v>48.84395870747048</v>
+        <v>48.09125104671565</v>
       </c>
       <c r="H21">
-        <v>18.81698954333692</v>
+        <v>13.47201858580724</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.20998744855101</v>
+        <v>5.633484776963845</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>12.04735869182134</v>
+        <v>8.813196664969627</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>18.97140718348935</v>
+        <v>11.26172079300172</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.08530159289798</v>
+        <v>31.87740167999599</v>
       </c>
       <c r="C22">
-        <v>9.826468126993921</v>
+        <v>16.33907855143537</v>
       </c>
       <c r="D22">
-        <v>7.485564351788416</v>
+        <v>4.466600349191318</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>40.75903973375319</v>
+        <v>35.3496077250651</v>
       </c>
       <c r="G22">
-        <v>49.03873008812476</v>
+        <v>49.5428923951668</v>
       </c>
       <c r="H22">
-        <v>18.80863231265453</v>
+        <v>13.68124880424171</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.1931386482191</v>
+        <v>5.587338411502214</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>12.06459575898214</v>
+        <v>8.999615195161674</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>18.91730369244559</v>
+        <v>11.03378617132516</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.89996442425177</v>
+        <v>31.2552766241744</v>
       </c>
       <c r="C23">
-        <v>9.687206242254289</v>
+        <v>16.05176469675803</v>
       </c>
       <c r="D23">
-        <v>7.484911181265158</v>
+        <v>4.443645496412728</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>40.72343367081949</v>
+        <v>34.89548110590248</v>
       </c>
       <c r="G23">
-        <v>48.93361175044098</v>
+        <v>48.76696203644843</v>
       </c>
       <c r="H23">
-        <v>18.81276630644343</v>
+        <v>13.56849084895949</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.20206596868241</v>
+        <v>5.611859275039647</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>12.05526164791702</v>
+        <v>8.900143245162303</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>18.94602718083191</v>
+        <v>11.15544291793534</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.19253131759076</v>
+        <v>28.81370805052159</v>
       </c>
       <c r="C24">
-        <v>9.138187962455808</v>
+        <v>14.92582284156621</v>
       </c>
       <c r="D24">
-        <v>7.483196734475957</v>
+        <v>4.358007458830896</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>40.60730590566096</v>
+        <v>33.20981682503648</v>
       </c>
       <c r="G24">
-        <v>48.56130503791289</v>
+        <v>45.8538362133871</v>
       </c>
       <c r="H24">
-        <v>18.83558618706978</v>
+        <v>13.16490367032462</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.23731183782819</v>
+        <v>5.707117131768853</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>12.02287828641187</v>
+        <v>8.523033527541054</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>19.05817367189938</v>
+        <v>11.61658495026114</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.4220600708292</v>
+        <v>26.03980063567201</v>
       </c>
       <c r="C25">
-        <v>8.500898445135181</v>
+        <v>13.62862833318813</v>
       </c>
       <c r="D25">
-        <v>7.482986062346845</v>
+        <v>4.268286737622922</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>40.52224853926894</v>
+        <v>31.46516712119671</v>
       </c>
       <c r="G25">
-        <v>48.2160932555059</v>
+        <v>42.76896423227821</v>
       </c>
       <c r="H25">
-        <v>18.87544548641587</v>
+        <v>12.77703484136148</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.27841313380445</v>
+        <v>5.815037541965004</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>11.99438638876183</v>
+        <v>8.116506533035107</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>19.18638068807378</v>
+        <v>12.11759081464202</v>
       </c>
       <c r="O25">
         <v>0</v>
